--- a/シナリオ/project/data/csv/SCN1_1.xlsx
+++ b/シナリオ/project/data/csv/SCN1_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\school\arts\2024\gc23_3dpg\ADVgame\project\data\csv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\school\sdt\2025\2年\git2年\シナリオ\project\data\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8EEDC63-C743-478C-8F23-76ADD05C2B6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85898B08-7850-4481-B09F-33E6E48E0134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2100" yWindow="1170" windowWidth="20730" windowHeight="12090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6180" yWindow="945" windowWidth="22725" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SCN1_1" sheetId="1" r:id="rId1"/>
@@ -540,8 +540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
